--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value711.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value711.xlsx
@@ -354,7 +354,7 @@
         <v>2.292106845600402</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.652969795379306</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value711.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value711.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.381411270421872</v>
+        <v>1.3418048620224</v>
       </c>
       <c r="B1">
-        <v>2.292106845600402</v>
+        <v>2.656242370605469</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.652969795379306</v>
+        <v>1.559033393859863</v>
       </c>
       <c r="E1">
-        <v>0.8297526182082029</v>
+        <v>0.92879319190979</v>
       </c>
     </row>
   </sheetData>
